--- a/uploads/exports/20250507-20250513-全部班级-考勤记录.xlsx
+++ b/uploads/exports/20250507-20250513-全部班级-考勤记录.xlsx
@@ -136,7 +136,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1428750" cy="1428750"/>
@@ -147,6 +147,56 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1428750" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1428750" cy="1428750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -449,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,38 +585,210 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>物联网2321</t>
+          <t>计算机2321</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20230101</t>
+          <t>123123123</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22:37:21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="100" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>计算机2321</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20230105</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>张三</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21:10:43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>21:10:58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22:16:24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>22:16:39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="100" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>计算机2321</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22:16:33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="100" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>计算机2321</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20230107</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22:16:36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>22:16:54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>计算机2321</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20230111</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22:35:15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22:35:21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
